--- a/seccion12/84/84t.xlsx
+++ b/seccion12/84/84t.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
   <si>
     <t>% of Total conteo along escoger categoria, Month of inicio annotation date</t>
   </si>
@@ -21,13 +21,25 @@
     <t>conteo</t>
   </si>
   <si>
+    <t>Anunciación</t>
+  </si>
+  <si>
+    <t>Asunción</t>
+  </si>
+  <si>
+    <t>Tránsito de la Virgen y Dormición</t>
+  </si>
+  <si>
+    <t>Visitación</t>
+  </si>
+  <si>
+    <t>Obras</t>
+  </si>
+  <si>
+    <t># y % de Obras</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>Obras</t>
-  </si>
-  <si>
-    <t># y % de Obras</t>
   </si>
   <si>
     <t>1550</t>
@@ -246,7 +258,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="166" formatCode="0.00%"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -274,7 +286,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="217">
+  <borders count="325">
     <border>
       <left/>
       <right/>
@@ -498,11 +510,119 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="325">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top"/>
@@ -1150,6 +1270,330 @@
       <alignment horizontal="general" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="216" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="217" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="218" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="219" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="220" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="221" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="222" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="223" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="224" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="225" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="226" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="227" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="228" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="229" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="230" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="231" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="232" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="233" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="234" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="235" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="236" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="237" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="238" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="239" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="240" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="241" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="242" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="243" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="244" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="245" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="246" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="247" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="248" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="249" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="250" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="251" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="252" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="253" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="254" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="255" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="256" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="257" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="258" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="259" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="260" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="261" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="262" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="263" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="264" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="265" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="266" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="267" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="268" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="269" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="270" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="271" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="272" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="273" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="274" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="275" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="276" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="277" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="278" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="279" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="280" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="281" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="282" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="283" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="284" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="285" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="286" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="287" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="288" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="289" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="290" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="291" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="292" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="293" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="294" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="295" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="296" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="297" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="298" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="299" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="300" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="301" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="302" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="303" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="304" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="305" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="306" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="307" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="308" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="309" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="310" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="311" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="312" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="313" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="314" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="315" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="316" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="317" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="318" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="319" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="320" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="321" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="322" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="323" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="324" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="general" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1161,230 +1605,230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BW3"/>
+  <dimension ref="A1:BW9"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="E1" s="4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S1" s="18" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="T1" s="19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U1" s="20" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="V1" s="21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="W1" s="22" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="X1" s="23" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Y1" s="24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Z1" s="25" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AA1" s="26" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AB1" s="27" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AC1" s="28" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AD1" s="29" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AE1" s="30" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AF1" s="31" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AG1" s="32" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AH1" s="33" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AI1" s="34" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AJ1" s="35" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AK1" s="36" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AL1" s="37" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AM1" s="38" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AN1" s="39" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AO1" s="40" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AP1" s="41" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AQ1" s="42" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AR1" s="43" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AS1" s="44" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AT1" s="45" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AU1" s="46" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AV1" s="47" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AW1" s="48" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="AX1" s="49" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AY1" s="50" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="AZ1" s="51" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="BA1" s="52" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="BB1" s="53" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="BC1" s="54" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="BD1" s="55" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="BE1" s="56" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="BF1" s="57" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="BG1" s="58" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="BH1" s="59" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="BI1" s="60" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="BJ1" s="61" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="BK1" s="62" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="BL1" s="63" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="BM1" s="64" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="BN1" s="65" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="BO1" s="66" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="BP1" s="67" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="BQ1" s="68" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="BR1" s="69" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="BS1" s="70" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="BT1" s="71" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="BU1" s="72" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BV1" s="73" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="BW1" s="74" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -1393,216 +1837,123 @@
         <v>0</v>
       </c>
       <c r="E2" s="75">
-        <v>0.26992287917737789</v>
-      </c>
-      <c r="F2" s="77">
-        <v>0.015424164524421594</v>
-      </c>
-      <c r="G2" s="79">
-        <v>0.0025706940874035988</v>
-      </c>
-      <c r="H2" s="81">
+        <v>0.10025706940874037</v>
+      </c>
+      <c r="F2" s="83">
+        <v>0.0077120822622107968</v>
+      </c>
+      <c r="G2" s="89">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="H2" s="91">
         <v>0.0051413881748071976</v>
       </c>
-      <c r="I2" s="83">
+      <c r="I2" s="93">
         <v>0.0051413881748071976</v>
       </c>
-      <c r="J2" s="85">
-        <v>0.0025706940874035988</v>
-      </c>
-      <c r="K2" s="87">
+      <c r="J2" s="95">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="K2" s="97">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="L2" s="105">
+        <v>0.041131105398457581</v>
+      </c>
+      <c r="N2" s="115">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="P2" s="121">
+        <v>0.0051413881748071976</v>
+      </c>
+      <c r="Q2" s="125">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="R2" s="127">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="S2" s="129">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="T2" s="133">
         <v>0.010282776349614395</v>
       </c>
-      <c r="L2" s="89">
-        <v>0.10539845758354756</v>
-      </c>
-      <c r="M2" s="91">
-        <v>0.0025706940874035988</v>
-      </c>
-      <c r="N2" s="93">
+      <c r="V2" s="143">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="W2" s="147">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="Z2" s="159">
+        <v>0.010282776349614395</v>
+      </c>
+      <c r="AA2" s="163">
+        <v>0.010282776349614395</v>
+      </c>
+      <c r="AD2" s="171">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="AE2" s="173">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="AG2" s="181">
+        <v>0.010282776349614395</v>
+      </c>
+      <c r="AI2" s="191">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="AJ2" s="193">
+        <v>0.0077120822622107968</v>
+      </c>
+      <c r="AM2" s="203">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="AO2" s="211">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="AP2" s="217">
+        <v>0.087403598971722368</v>
+      </c>
+      <c r="AT2" s="233">
         <v>0.0051413881748071976</v>
       </c>
-      <c r="O2" s="95">
-        <v>0.0025706940874035988</v>
-      </c>
-      <c r="P2" s="97">
-        <v>0.0077120822622107968</v>
-      </c>
-      <c r="Q2" s="99">
-        <v>0.0025706940874035988</v>
-      </c>
-      <c r="R2" s="101">
-        <v>0.0025706940874035988</v>
-      </c>
-      <c r="S2" s="103">
+      <c r="AV2" s="239">
         <v>0.0051413881748071976</v>
       </c>
-      <c r="T2" s="105">
-        <v>0.017994858611825194</v>
-      </c>
-      <c r="U2" s="107">
-        <v>0.0025706940874035988</v>
-      </c>
-      <c r="V2" s="109">
+      <c r="AW2" s="241">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="AX2" s="243">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BA2" s="253">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BB2" s="259">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BD2" s="265">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BE2" s="271">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BG2" s="277">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BJ2" s="285">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BK2" s="291">
         <v>0.0051413881748071976</v>
       </c>
-      <c r="W2" s="111">
-        <v>0.0051413881748071976</v>
-      </c>
-      <c r="X2" s="113">
-        <v>0.0077120822622107968</v>
-      </c>
-      <c r="Y2" s="115">
-        <v>0.0025706940874035988</v>
-      </c>
-      <c r="Z2" s="117">
-        <v>0.017994858611825194</v>
-      </c>
-      <c r="AA2" s="119">
-        <v>0.010282776349614395</v>
-      </c>
-      <c r="AB2" s="121">
-        <v>0.0051413881748071976</v>
-      </c>
-      <c r="AC2" s="123">
-        <v>0.0025706940874035988</v>
-      </c>
-      <c r="AD2" s="125">
-        <v>0.0025706940874035988</v>
-      </c>
-      <c r="AE2" s="127">
-        <v>0.010282776349614395</v>
-      </c>
-      <c r="AF2" s="129">
-        <v>0.0051413881748071976</v>
-      </c>
-      <c r="AG2" s="131">
-        <v>0.015424164524421594</v>
-      </c>
-      <c r="AH2" s="133">
-        <v>0.0077120822622107968</v>
-      </c>
-      <c r="AI2" s="135">
-        <v>0.0025706940874035988</v>
-      </c>
-      <c r="AJ2" s="137">
-        <v>0.012853470437017995</v>
-      </c>
-      <c r="AK2" s="139">
-        <v>0.0025706940874035988</v>
-      </c>
-      <c r="AL2" s="141">
-        <v>0.0051413881748071976</v>
-      </c>
-      <c r="AM2" s="143">
-        <v>0.012853470437017995</v>
-      </c>
-      <c r="AN2" s="145">
-        <v>0.0025706940874035988</v>
-      </c>
-      <c r="AO2" s="147">
-        <v>0.012853470437017995</v>
-      </c>
-      <c r="AP2" s="149">
-        <v>0.23393316195372751</v>
-      </c>
-      <c r="AQ2" s="151">
-        <v>0.0051413881748071976</v>
-      </c>
-      <c r="AR2" s="153">
-        <v>0.0025706940874035988</v>
-      </c>
-      <c r="AS2" s="155">
-        <v>0.0077120822622107968</v>
-      </c>
-      <c r="AT2" s="157">
-        <v>0.0051413881748071976</v>
-      </c>
-      <c r="AU2" s="159">
-        <v>0.0051413881748071976</v>
-      </c>
-      <c r="AV2" s="161">
-        <v>0.0051413881748071976</v>
-      </c>
-      <c r="AW2" s="163">
-        <v>0.0025706940874035988</v>
-      </c>
-      <c r="AX2" s="165">
-        <v>0.012853470437017995</v>
-      </c>
-      <c r="AY2" s="167">
-        <v>0.0025706940874035988</v>
-      </c>
-      <c r="AZ2" s="169">
-        <v>0.0025706940874035988</v>
-      </c>
-      <c r="BA2" s="171">
-        <v>0.0077120822622107968</v>
-      </c>
-      <c r="BB2" s="173">
-        <v>0.0025706940874035988</v>
-      </c>
-      <c r="BC2" s="175">
-        <v>0.0051413881748071976</v>
-      </c>
-      <c r="BD2" s="177">
-        <v>0.0077120822622107968</v>
-      </c>
-      <c r="BE2" s="179">
-        <v>0.0051413881748071976</v>
-      </c>
-      <c r="BF2" s="181">
-        <v>0.0025706940874035988</v>
-      </c>
-      <c r="BG2" s="183">
-        <v>0.0025706940874035988</v>
-      </c>
-      <c r="BH2" s="185">
-        <v>0.0051413881748071976</v>
-      </c>
-      <c r="BI2" s="187">
-        <v>0.0025706940874035988</v>
-      </c>
-      <c r="BJ2" s="189">
-        <v>0.0077120822622107968</v>
-      </c>
-      <c r="BK2" s="191">
-        <v>0.0051413881748071976</v>
-      </c>
-      <c r="BL2" s="193">
-        <v>0.0025706940874035988</v>
-      </c>
-      <c r="BM2" s="195">
-        <v>0.0025706940874035988</v>
-      </c>
-      <c r="BN2" s="197">
-        <v>0.0025706940874035988</v>
-      </c>
-      <c r="BO2" s="199">
-        <v>0.0025706940874035988</v>
-      </c>
-      <c r="BP2" s="201">
-        <v>0.010282776349614395</v>
-      </c>
-      <c r="BQ2" s="203">
-        <v>0.010282776349614395</v>
-      </c>
-      <c r="BR2" s="205">
-        <v>0.0025706940874035988</v>
-      </c>
-      <c r="BS2" s="207">
-        <v>0.0025706940874035988</v>
-      </c>
-      <c r="BT2" s="209">
-        <v>0.0025706940874035988</v>
-      </c>
-      <c r="BU2" s="211">
-        <v>0.0025706940874035988</v>
-      </c>
-      <c r="BV2" s="213">
-        <v>0.0025706940874035988</v>
-      </c>
-      <c r="BW2" s="215">
+      <c r="BO2" s="299">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BP2" s="301">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BQ2" s="307">
         <v>0.0025706940874035988</v>
       </c>
     </row>
@@ -1614,224 +1965,698 @@
         <v>1</v>
       </c>
       <c r="E3" s="76">
-        <v>105</v>
-      </c>
-      <c r="F3" s="78">
+        <v>39</v>
+      </c>
+      <c r="F3" s="84">
+        <v>3</v>
+      </c>
+      <c r="G3" s="90">
+        <v>1</v>
+      </c>
+      <c r="H3" s="92">
+        <v>2</v>
+      </c>
+      <c r="I3" s="94">
+        <v>2</v>
+      </c>
+      <c r="J3" s="96">
+        <v>1</v>
+      </c>
+      <c r="K3" s="98">
+        <v>1</v>
+      </c>
+      <c r="L3" s="106">
+        <v>16</v>
+      </c>
+      <c r="N3" s="116">
+        <v>1</v>
+      </c>
+      <c r="P3" s="122">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="126">
+        <v>1</v>
+      </c>
+      <c r="R3" s="128">
+        <v>1</v>
+      </c>
+      <c r="S3" s="130">
+        <v>1</v>
+      </c>
+      <c r="T3" s="134">
+        <v>4</v>
+      </c>
+      <c r="V3" s="144">
+        <v>1</v>
+      </c>
+      <c r="W3" s="148">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="160">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="164">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="172">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="174">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="182">
+        <v>4</v>
+      </c>
+      <c r="AI3" s="192">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="194">
+        <v>3</v>
+      </c>
+      <c r="AM3" s="204">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="212">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="218">
+        <v>34</v>
+      </c>
+      <c r="AT3" s="234">
+        <v>2</v>
+      </c>
+      <c r="AV3" s="240">
+        <v>2</v>
+      </c>
+      <c r="AW3" s="242">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="244">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="254">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="260">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="266">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="272">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="278">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="286">
+        <v>1</v>
+      </c>
+      <c r="BK3" s="292">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="300">
+        <v>1</v>
+      </c>
+      <c r="BP3" s="302">
+        <v>1</v>
+      </c>
+      <c r="BQ3" s="308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="77">
+        <v>0.092544987146529561</v>
+      </c>
+      <c r="F4" s="85">
+        <v>0.0051413881748071976</v>
+      </c>
+      <c r="K4" s="99">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="L4" s="107">
+        <v>0.030848329048843187</v>
+      </c>
+      <c r="N4" s="117">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="T4" s="135">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="W4" s="149">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="X4" s="151">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="Y4" s="157">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="AB4" s="165">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="AE4" s="175">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="AF4" s="179">
+        <v>0.0051413881748071976</v>
+      </c>
+      <c r="AG4" s="183">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="AH4" s="187">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="AJ4" s="195">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="AK4" s="199">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="AL4" s="201">
+        <v>0.0051413881748071976</v>
+      </c>
+      <c r="AM4" s="205">
+        <v>0.0051413881748071976</v>
+      </c>
+      <c r="AO4" s="213">
+        <v>0.0051413881748071976</v>
+      </c>
+      <c r="AP4" s="219">
+        <v>0.074550128534704371</v>
+      </c>
+      <c r="AQ4" s="225">
+        <v>0.0051413881748071976</v>
+      </c>
+      <c r="AS4" s="229">
+        <v>0.0051413881748071976</v>
+      </c>
+      <c r="AX4" s="245">
+        <v>0.0077120822622107968</v>
+      </c>
+      <c r="BA4" s="255">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BD4" s="267">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BH4" s="279">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BI4" s="283">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BJ4" s="287">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BM4" s="295">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BP4" s="303">
+        <v>0.0051413881748071976</v>
+      </c>
+      <c r="BQ4" s="309">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BR4" s="313">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BS4" s="315">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BT4" s="317">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BU4" s="319">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BV4" s="321">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BW4" s="323">
+        <v>0.0025706940874035988</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="78">
+        <v>36</v>
+      </c>
+      <c r="F5" s="86">
+        <v>2</v>
+      </c>
+      <c r="K5" s="100">
+        <v>1</v>
+      </c>
+      <c r="L5" s="108">
+        <v>12</v>
+      </c>
+      <c r="N5" s="118">
+        <v>1</v>
+      </c>
+      <c r="T5" s="136">
+        <v>1</v>
+      </c>
+      <c r="W5" s="150">
+        <v>1</v>
+      </c>
+      <c r="X5" s="152">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="158">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="166">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="176">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="180">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="184">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="188">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="196">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="200">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="202">
+        <v>2</v>
+      </c>
+      <c r="AM5" s="206">
+        <v>2</v>
+      </c>
+      <c r="AO5" s="214">
+        <v>2</v>
+      </c>
+      <c r="AP5" s="220">
+        <v>29</v>
+      </c>
+      <c r="AQ5" s="226">
+        <v>2</v>
+      </c>
+      <c r="AS5" s="230">
+        <v>2</v>
+      </c>
+      <c r="AX5" s="246">
+        <v>3</v>
+      </c>
+      <c r="BA5" s="256">
+        <v>1</v>
+      </c>
+      <c r="BD5" s="268">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="280">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="284">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="288">
+        <v>1</v>
+      </c>
+      <c r="BM5" s="296">
+        <v>1</v>
+      </c>
+      <c r="BP5" s="304">
+        <v>2</v>
+      </c>
+      <c r="BQ5" s="310">
+        <v>1</v>
+      </c>
+      <c r="BR5" s="314">
+        <v>1</v>
+      </c>
+      <c r="BS5" s="316">
+        <v>1</v>
+      </c>
+      <c r="BT5" s="318">
+        <v>1</v>
+      </c>
+      <c r="BU5" s="320">
+        <v>1</v>
+      </c>
+      <c r="BV5" s="322">
+        <v>1</v>
+      </c>
+      <c r="BW5" s="324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="79">
+        <v>0.041131105398457581</v>
+      </c>
+      <c r="F6" s="87">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="K6" s="101">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="L6" s="109">
+        <v>0.017994858611825194</v>
+      </c>
+      <c r="T6" s="137">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="X6" s="153">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="AE6" s="177">
+        <v>0.0051413881748071976</v>
+      </c>
+      <c r="AH6" s="189">
+        <v>0.0051413881748071976</v>
+      </c>
+      <c r="AN6" s="209">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="AP6" s="221">
+        <v>0.035989717223650387</v>
+      </c>
+      <c r="AR6" s="227">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="AS6" s="231">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="AU6" s="235">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="AX6" s="247">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BA6" s="257">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BC6" s="261">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BD6" s="269">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BE6" s="273">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BF6" s="275">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BH6" s="281">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BL6" s="293">
+        <v>0.0025706940874035988</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="80">
+        <v>16</v>
+      </c>
+      <c r="F7" s="88">
+        <v>1</v>
+      </c>
+      <c r="K7" s="102">
+        <v>1</v>
+      </c>
+      <c r="L7" s="110">
+        <v>7</v>
+      </c>
+      <c r="T7" s="138">
+        <v>1</v>
+      </c>
+      <c r="X7" s="154">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="178">
+        <v>2</v>
+      </c>
+      <c r="AH7" s="190">
+        <v>2</v>
+      </c>
+      <c r="AN7" s="210">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="222">
+        <v>14</v>
+      </c>
+      <c r="AR7" s="228">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="232">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="236">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="248">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="258">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="262">
+        <v>1</v>
+      </c>
+      <c r="BD7" s="270">
+        <v>1</v>
+      </c>
+      <c r="BE7" s="274">
+        <v>1</v>
+      </c>
+      <c r="BF7" s="276">
+        <v>1</v>
+      </c>
+      <c r="BH7" s="282">
+        <v>1</v>
+      </c>
+      <c r="BL7" s="294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="81">
+        <v>0.035989717223650387</v>
+      </c>
+      <c r="K8" s="103">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="L8" s="111">
+        <v>0.015424164524421594</v>
+      </c>
+      <c r="M8" s="113">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="O8" s="119">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="P8" s="123">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="S8" s="131">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="T8" s="139">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="U8" s="141">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="V8" s="145">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="X8" s="155">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="Z8" s="161">
+        <v>0.0077120822622107968</v>
+      </c>
+      <c r="AB8" s="167">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="AC8" s="169">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="AG8" s="185">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="AJ8" s="197">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="AM8" s="207">
+        <v>0.0051413881748071976</v>
+      </c>
+      <c r="AO8" s="215">
+        <v>0.0051413881748071976</v>
+      </c>
+      <c r="AP8" s="223">
+        <v>0.035989717223650387</v>
+      </c>
+      <c r="AU8" s="237">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="AY8" s="249">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="AZ8" s="251">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BC8" s="263">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BJ8" s="289">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BN8" s="297">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BP8" s="305">
+        <v>0.0025706940874035988</v>
+      </c>
+      <c r="BQ8" s="311">
+        <v>0.0051413881748071976</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="82">
+        <v>14</v>
+      </c>
+      <c r="K9" s="104">
+        <v>1</v>
+      </c>
+      <c r="L9" s="112">
         <v>6</v>
       </c>
-      <c r="G3" s="80">
-        <v>1</v>
-      </c>
-      <c r="H3" s="82">
+      <c r="M9" s="114">
+        <v>1</v>
+      </c>
+      <c r="O9" s="120">
+        <v>1</v>
+      </c>
+      <c r="P9" s="124">
+        <v>1</v>
+      </c>
+      <c r="S9" s="132">
+        <v>1</v>
+      </c>
+      <c r="T9" s="140">
+        <v>1</v>
+      </c>
+      <c r="U9" s="142">
+        <v>1</v>
+      </c>
+      <c r="V9" s="146">
+        <v>1</v>
+      </c>
+      <c r="X9" s="156">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="162">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="168">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="170">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="186">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="198">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="208">
         <v>2</v>
       </c>
-      <c r="I3" s="84">
+      <c r="AO9" s="216">
         <v>2</v>
       </c>
-      <c r="J3" s="86">
-        <v>1</v>
-      </c>
-      <c r="K3" s="88">
-        <v>4</v>
-      </c>
-      <c r="L3" s="90">
-        <v>41</v>
-      </c>
-      <c r="M3" s="92">
-        <v>1</v>
-      </c>
-      <c r="N3" s="94">
+      <c r="AP9" s="224">
+        <v>14</v>
+      </c>
+      <c r="AU9" s="238">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="250">
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="252">
+        <v>1</v>
+      </c>
+      <c r="BC9" s="264">
+        <v>1</v>
+      </c>
+      <c r="BJ9" s="290">
+        <v>1</v>
+      </c>
+      <c r="BN9" s="298">
+        <v>1</v>
+      </c>
+      <c r="BP9" s="306">
+        <v>1</v>
+      </c>
+      <c r="BQ9" s="312">
         <v>2</v>
-      </c>
-      <c r="O3" s="96">
-        <v>1</v>
-      </c>
-      <c r="P3" s="98">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="100">
-        <v>1</v>
-      </c>
-      <c r="R3" s="102">
-        <v>1</v>
-      </c>
-      <c r="S3" s="104">
-        <v>2</v>
-      </c>
-      <c r="T3" s="106">
-        <v>7</v>
-      </c>
-      <c r="U3" s="108">
-        <v>1</v>
-      </c>
-      <c r="V3" s="110">
-        <v>2</v>
-      </c>
-      <c r="W3" s="112">
-        <v>2</v>
-      </c>
-      <c r="X3" s="114">
-        <v>3</v>
-      </c>
-      <c r="Y3" s="116">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="118">
-        <v>7</v>
-      </c>
-      <c r="AA3" s="120">
-        <v>4</v>
-      </c>
-      <c r="AB3" s="122">
-        <v>2</v>
-      </c>
-      <c r="AC3" s="124">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="126">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="128">
-        <v>4</v>
-      </c>
-      <c r="AF3" s="130">
-        <v>2</v>
-      </c>
-      <c r="AG3" s="132">
-        <v>6</v>
-      </c>
-      <c r="AH3" s="134">
-        <v>3</v>
-      </c>
-      <c r="AI3" s="136">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="138">
-        <v>5</v>
-      </c>
-      <c r="AK3" s="140">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="142">
-        <v>2</v>
-      </c>
-      <c r="AM3" s="144">
-        <v>5</v>
-      </c>
-      <c r="AN3" s="146">
-        <v>1</v>
-      </c>
-      <c r="AO3" s="148">
-        <v>5</v>
-      </c>
-      <c r="AP3" s="150">
-        <v>91</v>
-      </c>
-      <c r="AQ3" s="152">
-        <v>2</v>
-      </c>
-      <c r="AR3" s="154">
-        <v>1</v>
-      </c>
-      <c r="AS3" s="156">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="158">
-        <v>2</v>
-      </c>
-      <c r="AU3" s="160">
-        <v>2</v>
-      </c>
-      <c r="AV3" s="162">
-        <v>2</v>
-      </c>
-      <c r="AW3" s="164">
-        <v>1</v>
-      </c>
-      <c r="AX3" s="166">
-        <v>5</v>
-      </c>
-      <c r="AY3" s="168">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="170">
-        <v>1</v>
-      </c>
-      <c r="BA3" s="172">
-        <v>3</v>
-      </c>
-      <c r="BB3" s="174">
-        <v>1</v>
-      </c>
-      <c r="BC3" s="176">
-        <v>2</v>
-      </c>
-      <c r="BD3" s="178">
-        <v>3</v>
-      </c>
-      <c r="BE3" s="180">
-        <v>2</v>
-      </c>
-      <c r="BF3" s="182">
-        <v>1</v>
-      </c>
-      <c r="BG3" s="184">
-        <v>1</v>
-      </c>
-      <c r="BH3" s="186">
-        <v>2</v>
-      </c>
-      <c r="BI3" s="188">
-        <v>1</v>
-      </c>
-      <c r="BJ3" s="190">
-        <v>3</v>
-      </c>
-      <c r="BK3" s="192">
-        <v>2</v>
-      </c>
-      <c r="BL3" s="194">
-        <v>1</v>
-      </c>
-      <c r="BM3" s="196">
-        <v>1</v>
-      </c>
-      <c r="BN3" s="198">
-        <v>1</v>
-      </c>
-      <c r="BO3" s="200">
-        <v>1</v>
-      </c>
-      <c r="BP3" s="202">
-        <v>4</v>
-      </c>
-      <c r="BQ3" s="204">
-        <v>4</v>
-      </c>
-      <c r="BR3" s="206">
-        <v>1</v>
-      </c>
-      <c r="BS3" s="208">
-        <v>1</v>
-      </c>
-      <c r="BT3" s="210">
-        <v>1</v>
-      </c>
-      <c r="BU3" s="212">
-        <v>1</v>
-      </c>
-      <c r="BV3" s="214">
-        <v>1</v>
-      </c>
-      <c r="BW3" s="216">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="A2:A9"/>
   </mergeCells>
 </worksheet>
 </file>